--- a/Demo Data/Ohio Business Services Inc.xlsx
+++ b/Demo Data/Ohio Business Services Inc.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KennyHawkins\Documents\Canal\Demo Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3434814B-FD2C-48B8-ACD9-D7DE9DAD320F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFF4A2E-4A29-4F58-BAC3-E9293DEA81AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36390" yWindow="2610" windowWidth="17895" windowHeight="11550" activeTab="2" xr2:uid="{4FB22C0A-B74A-4205-A21A-7BF9DC85F9A4}"/>
+    <workbookView xWindow="36390" yWindow="2610" windowWidth="17895" windowHeight="11550" firstSheet="1" activeTab="4" xr2:uid="{4FB22C0A-B74A-4205-A21A-7BF9DC85F9A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Distribution Centers" sheetId="1" r:id="rId1"/>
     <sheet name="Warehouses" sheetId="2" r:id="rId2"/>
     <sheet name="Cost Centers" sheetId="4" r:id="rId3"/>
     <sheet name="Vendors" sheetId="5" r:id="rId4"/>
+    <sheet name="Trans. Carriers" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Cost Centers'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Distribution Centers'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Trans. Carriers'!$A$1:$F$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Vendors!$A$1:$F$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Warehouses!$A$1:$E$1</definedName>
   </definedNames>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="395">
   <si>
     <t>Name</t>
   </si>
@@ -1206,6 +1208,30 @@
   </si>
   <si>
     <t>Software</t>
+  </si>
+  <si>
+    <t>Global Haulage Ltd.</t>
+  </si>
+  <si>
+    <t>7890 Freight St.</t>
+  </si>
+  <si>
+    <t>Titan Transport Inc.</t>
+  </si>
+  <si>
+    <t>3456 Logistic Ave.</t>
+  </si>
+  <si>
+    <t>Horizon Carriers LLC</t>
+  </si>
+  <si>
+    <t>9012 Supply Drive</t>
+  </si>
+  <si>
+    <t>SwiftLogistics Co.</t>
+  </si>
+  <si>
+    <t>1234 Cargo Way</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1276,6 +1302,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1817,7 +1846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F8F150-6AAA-4EBE-8496-A64DEB5272BC}">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
@@ -4972,4 +5001,450 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FF2809-459D-4F68-9FE2-A4C0554295C2}">
+  <dimension ref="A1:F46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6">
+        <v>30303</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6">
+        <v>80202</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="6">
+        <v>98101</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="6">
+        <v>75201</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F16" xr:uid="{F07B267A-57EF-4389-902A-D212D527614D}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>